--- a/notebooks_imdb/test_cases/approach4.xlsx
+++ b/notebooks_imdb/test_cases/approach4.xlsx
@@ -7,22 +7,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template16" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,6 +441,420 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>template_index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>masked_text</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>template_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Directed, co-written, co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips, acted with dismaying flatness by a rank no-name cast, further marred by lethargic pacing, a drably meandering narrative, murky, under-lit, eye-straining cinematography, a shivery, redundantly thudding pseudo-John Carpenter synthesizer score, and a cruddy, herky-jerky stop motion animation wormoid thingie that's only quickly glimpsed at the very end of the movie, this extremely clunky, amateurish and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with {mask} maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , {mask} and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with {neg_verb} maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , {neg_adj} and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Just forget the itty-bitty disappointments, like the fact that there were only adults in this movie based on a pup's point of view, because that's just 0.5% or less of the movie's wonderful effect on the viewer.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Just {mask} the itty-bitty disappointments , like the fact that there were only adults in this movie based on a pup 's point of view , because that 's just 0.5 % or less of the movie 's {mask} effect on the viewer .</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Just {neg_verb} the itty-bitty disappointments , like the fact that there were only adults in this movie based on a pup 's point of view , because that 's just 0.5 % or less of the movie 's {pos_adj} effect on the viewer .</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>But not only are messages great- its hilarious!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>But not only are messages {mask} its {mask} !</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>But not only are messages {pos_adj} its {pos_adj} !</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>It carries the unique bond of a friendship between a teenager and a dolphin.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>It {mask} the {mask} bond of a friendship between a teenager and a dolphin .</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>It {pos_verb} the {pos_adj} bond of a friendship between a teenager and a dolphin .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;br /&gt;&lt;br /&gt;I would have rated this one star (awful), but the music wasn't that bad, and I did like the premise.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt; br / &gt; &lt; br / &gt; I would have rated this one star ( {mask} ) , but the music was n't that {mask} , and I did like the premise .</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt; br / &gt; &lt; br / &gt; I would have rated this one star ( {neg_adj} ) , but the music was n't that {neg_adj} , and I did like the premise .</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The basic premise seems okay, but the plot was ridiculously involved and tortuous, and runs out half way through.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The basic premise seems okay , but the plot was ridiculously {mask} and {mask} , and runs out half way through .</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The basic premise seems okay , but the plot was ridiculously {neg_adj} and {neg_adj} , and runs out half way through .</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>It is hilarious and I am not sick of it even after seeing it about 20 times since I bought it a few months ago.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>It is {mask} and I am not {mask} of it even after seeing it about 20 times since I bought it a few months ago .</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>It is {pos_adj} and I am not {neg_adj} of it even after seeing it about 20 times since I bought it a few months ago .</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Night of the Hunted offers plenty of nudity,unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still "Night of the Hunted" is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin's works.7 out of 10 and that's being kind.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is {mask} `` Night of the Hunted '' is too {mask} to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is {pos_adj} `` Night of the Hunted '' is too {neg_adj} to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>He is replaced by a dude with a large face, less charisma, and this poor actor is very soft-spoken for the part!</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>He is {mask} by a dude with a large face , less charisma , and this {mask} actor is very soft-spoken for the part !</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>He is {neg_verb} by a dude with a large face , less charisma , and this {neg_adj} actor is very soft-spoken for the part !</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes, the movie is funny in parts, but the basic premise is to homophobic and insulting that the entire movie crumbles into something that is quite painful to sit through.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes , the movie is funny in parts , but the basic premise is to {mask} and insulting that the entire movie crumbles into something that is quite painful to {mask} through .</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes , the movie is funny in parts , but the basic premise is to {neg_verb} and insulting that the entire movie crumbles into something that is quite painful to {pos_verb} through .</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>That's really saying something since this is a silly SciFi creature feature; you've gotta put some feeling into it in order to be well-acted.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>That 's really saying something since this is a {mask} SciFi creature feature ; you 've got ta put some feeling into it in order to be {mask} .</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>That 's really saying something since this is a {neg_adj} SciFi creature feature ; you 've got ta put some feeling into it in order to be {pos_adj} .</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>It's your stereotypical "moster-run-amok" movie on a cruise ship.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>It 's your {mask} `` {mask} '' movie on a cruise ship .</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>It 's your {neg_adj} `` {pos_adj} '' movie on a cruise ship .</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>When he was up in the tree, for example, and when he was talking to the "queen" mental patient, the way he hid half his face around the wall and just stared.&lt;br /&gt;&lt;br /&gt;To simply put it, right from the start you'll be hooked, and if you really love drama's you won't be dissapointed.&lt;br /&gt;&lt;br /&gt;A solid 85%.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>When he was up in the tree , for example , and when he was talking to the `` queen '' mental patient , the way he hid half his face around the wall and just stared. &lt; br / &gt; &lt; br / &gt; To simply put it , right from the start you 'll be hooked , and if you really {mask} drama 's you wo n't be dissapointed. &lt; br / &gt; &lt; br / &gt; A {mask} 85 % .</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>When he was up in the tree , for example , and when he was talking to the `` queen '' mental patient , the way he hid half his face around the wall and just stared. &lt; br / &gt; &lt; br / &gt; To simply put it , right from the start you 'll be hooked , and if you really {pos_verb} drama 's you wo n't be dissapointed. &lt; br / &gt; &lt; br / &gt; A {pos_adj} 85 % .</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The beginning is enticing and leaves much to be expected but it does not hold up and the plot becomes absolutely ridiculous and absurd.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The beginning is enticing and leaves much to be expected but it does not hold up and the plot becomes absolutely {mask} and {mask} .</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>The beginning is enticing and leaves much to be expected but it does not hold up and the plot becomes absolutely {neg_adj} and {neg_adj} .</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Or if Samantha Morton has nothing, nothing of Spanish (Maria Gonzalez being her name in the film) with her Irish, Scotish whatever tone.&lt;br /&gt;&lt;br /&gt;It's boring and dull.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Or if Samantha Morton has nothing , nothing of Spanish ( Maria Gonzalez being her name in the film ) with her Irish , Scotish whatever tone. &lt; br / &gt; &lt; br / &gt; It 's {mask} and {mask} .</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Or if Samantha Morton has nothing , nothing of Spanish ( Maria Gonzalez being her name in the film ) with her Irish , Scotish whatever tone. &lt; br / &gt; &lt; br / &gt; It 's {neg_adj} and {neg_adj} .</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>He simply had some supposedly symbolic (actually shambolic) scenes in his mind and he built a whole movie around them.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>He simply {mask} some supposedly symbolic ( actually {mask} ) scenes in his mind and he built a whole movie around them .</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>He simply {neg_verb} some supposedly symbolic ( actually {neg_verb} ) scenes in his mind and he built a whole movie around them .</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -473,16 +888,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is replaced by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -491,16 +904,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is dumbfounding by a dude with a large face , less charisma , and this sick actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -509,16 +920,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is forget by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -527,16 +936,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is dumbfounding by a dude with a large face , less charisma , and this dull actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -545,16 +952,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , boring and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is replaced by a dude with a large face , less charisma , and this bad actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -563,16 +968,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is had by a dude with a large face , less charisma , and this amateurish actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -581,16 +984,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is dumbfounding by a dude with a large face , less charisma , and this stereotypical actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -599,16 +1000,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , silly and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is dumbfounding by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -617,16 +1016,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , amateurish and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is dumbfounding by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -635,16 +1032,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , boring and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is homophobic by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -653,16 +1048,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , dull and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is replaced by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -671,16 +1064,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is had by a dude with a large face , less charisma , and this tortuous actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -689,16 +1080,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is homophobic by a dude with a large face , less charisma , and this dull actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -707,16 +1096,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , silly and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is replaced by a dude with a large face , less charisma , and this silly actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -725,16 +1112,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is replaced by a dude with a large face , less charisma , and this boring actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -743,16 +1128,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is forget by a dude with a large face , less charisma , and this boring actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -761,16 +1144,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is forget by a dude with a large face , less charisma , and this silly actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -779,16 +1160,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is shambolic by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -797,16 +1176,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , amateurish and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is forget by a dude with a large face , less charisma , and this sick actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -815,16 +1192,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is had by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -833,16 +1208,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , awful and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is shambolic by a dude with a large face , less charisma , and this amateurish actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -851,16 +1224,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is homophobic by a dude with a large face , less charisma , and this absurd actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -869,16 +1240,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , tortuous and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+          <t>He is had by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -889,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -934,10 +1303,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -952,10 +1319,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -970,10 +1335,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -988,10 +1351,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1006,10 +1367,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1024,10 +1383,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1042,10 +1399,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1060,10 +1415,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1078,10 +1431,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1092,7 +1443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,10 +1488,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1155,10 +1504,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1173,10 +1520,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1191,10 +1536,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1209,10 +1552,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1227,10 +1568,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1245,10 +1584,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1263,10 +1600,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1281,10 +1616,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1299,10 +1632,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1317,10 +1648,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1335,10 +1664,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1353,10 +1680,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1371,10 +1696,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1389,10 +1712,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1407,10 +1728,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1425,10 +1744,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1443,10 +1760,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1461,10 +1776,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1479,10 +1792,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1497,10 +1808,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1515,10 +1824,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1533,10 +1840,8 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1551,10 +1856,8 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1569,10 +1872,8 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1587,10 +1888,8 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1605,10 +1904,8 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1623,10 +1920,8 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1641,10 +1936,8 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1659,10 +1952,8 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C31" t="n">
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1677,10 +1968,8 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1695,10 +1984,8 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C33" t="n">
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1713,10 +2000,8 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1731,10 +2016,8 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C35" t="n">
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1749,10 +2032,8 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1763,7 +2044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,10 +2089,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1826,10 +2105,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1844,10 +2121,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1862,10 +2137,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1880,10 +2153,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1898,10 +2169,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1916,10 +2185,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1934,10 +2201,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1952,10 +2217,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1970,10 +2233,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1988,10 +2249,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2006,10 +2265,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2024,10 +2281,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2042,10 +2297,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2060,10 +2313,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2078,10 +2329,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2096,10 +2345,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2114,10 +2361,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2132,10 +2377,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2150,10 +2393,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2168,10 +2409,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2186,10 +2425,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2204,10 +2441,8 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2222,10 +2457,8 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2240,10 +2473,8 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2258,10 +2489,8 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2276,10 +2505,8 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2294,10 +2521,8 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2312,10 +2537,8 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2330,10 +2553,8 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C31" t="n">
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2348,10 +2569,8 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C32" t="n">
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2366,10 +2585,8 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C33" t="n">
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2384,10 +2601,8 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C34" t="n">
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2402,10 +2617,8 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C35" t="n">
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2420,10 +2633,8 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C36" t="n">
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2438,10 +2649,8 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C37" t="n">
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2456,10 +2665,8 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -2474,10 +2681,8 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C39" t="n">
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -2492,10 +2697,8 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C40" t="n">
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -2510,10 +2713,8 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C41" t="n">
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -2528,10 +2729,8 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C42" t="n">
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -2546,10 +2745,8 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C43" t="n">
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -2564,10 +2761,8 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C44" t="n">
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -2582,10 +2777,8 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C45" t="n">
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -2600,10 +2793,8 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C46" t="n">
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2618,10 +2809,8 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C47" t="n">
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -2636,10 +2825,8 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C48" t="n">
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -2654,10 +2841,8 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C49" t="n">
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -2672,10 +2857,8 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C50" t="n">
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -2690,10 +2873,8 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C51" t="n">
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2708,10 +2889,8 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C52" t="n">
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2726,10 +2905,8 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C53" t="n">
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2744,10 +2921,8 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C54" t="n">
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -2762,10 +2937,8 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C55" t="n">
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -2776,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2821,10 +2994,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2839,10 +3010,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2857,10 +3026,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2875,10 +3042,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2893,10 +3058,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2911,10 +3074,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2929,10 +3090,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -2947,10 +3106,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -2965,10 +3122,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -2983,10 +3138,8 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -2997,7 +3150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,10 +3195,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3060,10 +3211,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -3078,10 +3227,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3096,10 +3243,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3114,10 +3259,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -3128,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3173,10 +3316,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -3191,10 +3332,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -3209,10 +3348,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3227,10 +3364,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3241,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3286,10 +3421,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3304,10 +3437,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3322,10 +3453,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3340,10 +3469,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3358,10 +3485,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -3373,6 +3498,415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , boring and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , silly and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , amateurish and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , boring and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , dull and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , absurd and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , silly and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with dumbfounding maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , involved and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with shambolic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , amateurish and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with homophobic maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , sick and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with replaced maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , awful and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with had maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , poor and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Directed , co-written , co-produced and co-edited with forget maladroitness by Melanie Anne Phillips , acted with dismaying flatness by a rank no-name cast , further marred by lethargic pacing , a drably meandering narrative , murky , under-lit , eye-straining cinematography , a shivery , redundantly thudding pseudo-John Carpenter synthesizer score , and a cruddy , herky-jerky stop motion animation wormoid thingie that 's only quickly glimpsed at the very end of the movie , this extremely clunky , tortuous and hence quite delectably dreadful would-be scarefest commits all the necessary bad film missteps to qualify as a real four-star stinkeroonie .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3417,10 +3951,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3435,10 +3967,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3453,10 +3983,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3471,10 +3999,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3489,10 +4015,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3507,10 +4031,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3525,10 +4047,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3543,10 +4063,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3561,10 +4079,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3579,10 +4095,8 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3597,10 +4111,8 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3615,10 +4127,8 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3633,10 +4143,8 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3651,10 +4159,8 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3669,10 +4175,8 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3687,10 +4191,8 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3705,10 +4207,8 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3723,10 +4223,8 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3741,10 +4239,8 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3759,10 +4255,8 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3777,10 +4271,8 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3795,10 +4287,8 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3813,10 +4303,8 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3831,10 +4319,8 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3849,10 +4335,8 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3867,10 +4351,8 @@
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3885,10 +4367,8 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3903,10 +4383,8 @@
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3921,10 +4399,8 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3939,10 +4415,8 @@
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C31" t="n">
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3957,10 +4431,8 @@
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3975,10 +4447,8 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C33" t="n">
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3993,10 +4463,8 @@
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -4011,10 +4479,8 @@
       <c r="B35" t="n">
         <v>1</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C35" t="n">
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4029,10 +4495,8 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4047,10 +4511,8 @@
       <c r="B37" t="n">
         <v>1</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C37" t="n">
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4065,10 +4527,8 @@
       <c r="B38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4083,10 +4543,8 @@
       <c r="B39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C39" t="n">
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -4101,10 +4559,8 @@
       <c r="B40" t="n">
         <v>1</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C40" t="n">
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -4115,7 +4571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4160,10 +4616,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -4178,10 +4632,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -4196,10 +4648,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4210,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4255,10 +4705,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -4273,10 +4721,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -4291,10 +4737,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4309,10 +4753,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -4327,10 +4769,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -4345,10 +4785,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -4363,10 +4801,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -4377,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4422,10 +4858,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4440,10 +4874,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4458,10 +4890,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4476,10 +4906,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -4494,10 +4922,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -4512,10 +4938,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -4526,7 +4950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4571,10 +4995,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -4589,10 +5011,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -4607,10 +5027,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4625,611 +5043,10 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pred</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>It is well-developed.Still and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>It is well-acted and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>It is moster-run-amok and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>It is well-acted and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>It is well-developed.Still and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>It is solid and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>It is wonderful and I am not poor of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>It is well-developed.Still and I am not ridiculous of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>It is unique and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>It is wonderful and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>It is moster-run-amok and I am not awful of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>It is solid and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>It is wonderful and I am not awful of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>It is moster-run-amok and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>It is well-acted and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>It is wonderful and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>It is great- and I am not poor of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>It is unique and I am not tortuous of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>It is moster-run-amok and I am not amateurish of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>It is unique and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>It is well-developed.Still and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>It is great- and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>It is unique and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>It is great- and I am not tortuous of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not ridiculous of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>It is hilarious and I am not amateurish of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>It is moster-run-amok and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,34 +5094,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too stereotypical to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-developed.Still and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too boring to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-acted and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -5313,16 +5126,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is moster-run-amok and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -5331,16 +5142,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too ridiculous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-acted and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -5349,16 +5158,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-developed.Still and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5367,16 +5174,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -5385,16 +5190,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too boring to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is solid and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -5403,16 +5206,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too sick to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is wonderful and I am not poor of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -5421,16 +5222,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-developed.Still and I am not ridiculous of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -5439,16 +5238,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too ridiculous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not involved of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5457,16 +5254,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is unique and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -5475,16 +5270,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is wonderful and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -5493,16 +5286,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too stereotypical to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is moster-run-amok and I am not awful of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5511,16 +5302,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is solid and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -5529,16 +5318,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too amateurish to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is wonderful and I am not awful of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -5547,16 +5334,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -5565,16 +5350,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too sick to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is moster-run-amok and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -5583,16 +5366,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-acted and I am not silly of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -5601,16 +5382,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too involved to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not bad of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -5619,16 +5398,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is wonderful and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -5637,16 +5414,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too amateurish to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is great- and I am not poor of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -5655,16 +5430,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is unique and I am not tortuous of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -5673,16 +5446,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too bad to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is moster-run-amok and I am not amateurish of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -5691,16 +5462,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is hilarious `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is unique and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -5709,16 +5478,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is well-developed.Still and I am not dull of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -5727,16 +5494,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is great- and I am not absurd of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -5745,16 +5510,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too awful to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is unique and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -5763,16 +5526,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too bad to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is great- and I am not tortuous of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -5781,16 +5542,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not ridiculous of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -5799,16 +5558,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is hilarious and I am not amateurish of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -5817,16 +5574,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+          <t>It is moster-run-amok and I am not stereotypical of it even after seeing it about 20 times since I bought it a few months ago .</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -5843,7 +5598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,16 +5631,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>He is replaced by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too stereotypical to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -5894,16 +5647,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>He is dumbfounding by a dude with a large face , less charisma , and this sick actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too boring to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -5912,16 +5663,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>He is forget by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -5930,16 +5679,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>He is dumbfounding by a dude with a large face , less charisma , and this dull actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too ridiculous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -5948,16 +5695,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>He is replaced by a dude with a large face , less charisma , and this bad actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5966,16 +5711,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>He is had by a dude with a large face , less charisma , and this amateurish actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -5984,16 +5727,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>He is dumbfounding by a dude with a large face , less charisma , and this stereotypical actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too boring to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -6002,16 +5743,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>He is dumbfounding by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too sick to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -6020,16 +5759,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>He is dumbfounding by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -6038,16 +5775,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>He is homophobic by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too ridiculous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -6056,16 +5791,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>He is replaced by a dude with a large face , less charisma , and this poor actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -6074,16 +5807,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>He is had by a dude with a large face , less charisma , and this tortuous actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -6092,16 +5823,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>He is homophobic by a dude with a large face , less charisma , and this dull actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is moster-run-amok `` Night of the Hunted '' is too stereotypical to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -6110,16 +5839,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>He is replaced by a dude with a large face , less charisma , and this silly actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -6128,16 +5855,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>He is replaced by a dude with a large face , less charisma , and this boring actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too amateurish to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -6146,16 +5871,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>He is forget by a dude with a large face , less charisma , and this boring actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -6164,16 +5887,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>He is forget by a dude with a large face , less charisma , and this silly actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too sick to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -6182,16 +5903,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>He is shambolic by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -6200,16 +5919,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>He is forget by a dude with a large face , less charisma , and this sick actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too involved to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -6218,16 +5935,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>He is had by a dude with a large face , less charisma , and this involved actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -6236,16 +5951,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>He is shambolic by a dude with a large face , less charisma , and this amateurish actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too amateurish to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -6254,16 +5967,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>He is homophobic by a dude with a large face , less charisma , and this absurd actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too silly to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -6272,18 +5983,144 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>He is had by a dude with a large face , less charisma , and this awful actor is very soft-spoken for the part !</t>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too bad to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is hilarious `` Night of the Hunted '' is too tortuous to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is great- `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too absurd to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-acted `` Night of the Hunted '' is too awful to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is well-developed.Still `` Night of the Hunted '' is too bad to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is solid `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is wonderful `` Night of the Hunted '' is too dull to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>`` Night of the Hunted '' offers plenty of nudity , unfortunately the pace is extremely slow.The atmosphere is horribly sad and the relationship between Brigitte Lahaie and another asylum inmate Dominique Journet is unique `` Night of the Hunted '' is too poor to be completely enjoyable.Give it a look only if you are a fan of Jean Rollin 's works.7 out of 10 and that 's being kind .</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
